--- a/firstClassNew.xlsx
+++ b/firstClassNew.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7095" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7095" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="MathFunction" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -187,12 +193,174 @@
   </si>
   <si>
     <t>Max Salary Location ?</t>
+  </si>
+  <si>
+    <t>Function Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function </t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>counta</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>count only numeric values</t>
+  </si>
+  <si>
+    <t>count alphanumeric value</t>
+  </si>
+  <si>
+    <t>countblank</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>qut</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
+    <t>p12</t>
+  </si>
+  <si>
+    <t>p13</t>
+  </si>
+  <si>
+    <t>p14</t>
+  </si>
+  <si>
+    <t>p15</t>
+  </si>
+  <si>
+    <t>price/per product</t>
+  </si>
+  <si>
+    <t>Total Pay</t>
+  </si>
+  <si>
+    <t>total Pay</t>
+  </si>
+  <si>
+    <t>sumproduct</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>sell volume</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>Ndelhi</t>
+  </si>
+  <si>
+    <t>Sdelhi</t>
+  </si>
+  <si>
+    <t>Wdelhi</t>
+  </si>
+  <si>
+    <t>Edelhi</t>
+  </si>
+  <si>
+    <t>total sell volume</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Sumifs</t>
+  </si>
+  <si>
+    <t>Sumif</t>
+  </si>
+  <si>
+    <t>Sum of sell volume</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -245,6 +413,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,6 +547,191 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="43778.60714270833" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A43:C63" sheet="MathFunction"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="product" numFmtId="0">
+      <sharedItems count="4">
+        <s v="lux"/>
+        <s v="pen"/>
+        <s v="book"/>
+        <s v="mobile"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="sell volume" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="340"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <x v="0"/>
+    <s v="Ndelhi"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Sdelhi"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wdelhi"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Edelhi"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Ndelhi"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Sdelhi"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wdelhi"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Edelhi"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Ndelhi"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Sdelhi"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wdelhi"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Edelhi"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Ndelhi"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Sdelhi"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wdelhi"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Edelhi"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="Ndelhi"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Sdelhi"/>
+    <n v="230"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wdelhi"/>
+    <n v="240"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Edelhi"/>
+    <n v="340"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of sell volume" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,7 +1534,7 @@
         <v>15</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L9" si="0">VLOOKUP(K4,A3:E8,2,0)</f>
+        <f t="shared" ref="L4:L5" si="0">VLOOKUP(K4,A3:E8,2,0)</f>
         <v>300</v>
       </c>
     </row>
@@ -1430,7 +1789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1590,4 +1949,1245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="6">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5050</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73:D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <f>B2+C2+B3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <f>SUM(B2,C2,B3)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <f>SUM(B2:B6)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8">
+        <f>D6-B6</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <f>B6*D8</f>
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <f>D9/B6</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <f>130%</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <f>D9*30%</f>
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>SUM(B2:B6)/5</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>AVERAGE(B2:B6)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <f>COUNT(B2:B6)</f>
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>SUM(B2:B6)/COUNT(B2:B6)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <f>COUNT(B2:B16)</f>
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f>COUNT(B2:B16)-COUNTA(B2:B16)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>COUNTA(B1:B16)</f>
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <f>COUNTBLANK(B1:B16)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>254</v>
+      </c>
+      <c r="C23">
+        <v>4470</v>
+      </c>
+      <c r="D23">
+        <f>B23*C23</f>
+        <v>1135380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>234</v>
+      </c>
+      <c r="C24">
+        <v>3052</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D37" si="0">B24*C24</f>
+        <v>714168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>399</v>
+      </c>
+      <c r="C25">
+        <v>3908</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1559292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>211</v>
+      </c>
+      <c r="C26">
+        <v>4954</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1045294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>407</v>
+      </c>
+      <c r="C27">
+        <v>4423</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1800161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>258</v>
+      </c>
+      <c r="C28">
+        <v>4327</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1116366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29">
+        <v>421</v>
+      </c>
+      <c r="C29">
+        <v>3891</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1638111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30">
+        <v>248</v>
+      </c>
+      <c r="C30">
+        <v>4327</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1073096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>467</v>
+      </c>
+      <c r="C31">
+        <v>3065</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1431355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32">
+        <v>318</v>
+      </c>
+      <c r="C32">
+        <v>3676</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1168968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <v>308</v>
+      </c>
+      <c r="C33">
+        <v>4794</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1476552</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>352</v>
+      </c>
+      <c r="C34">
+        <v>4896</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1723392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35">
+        <v>263</v>
+      </c>
+      <c r="C35">
+        <v>3616</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>951008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>234</v>
+      </c>
+      <c r="C36">
+        <v>4209</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>984906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>365</v>
+      </c>
+      <c r="C37">
+        <v>3961</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>1445765</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39">
+        <f>SUM(D23:D37)</f>
+        <v>19263814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41">
+        <f>SUMPRODUCT(B23:B37,C23:C37)</f>
+        <v>19263814</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>340</v>
+      </c>
+      <c r="J47" t="s">
+        <v>88</v>
+      </c>
+      <c r="K47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48">
+        <v>200</v>
+      </c>
+      <c r="E48" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J48" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49">
+        <v>230</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49">
+        <f ca="1">SUMIF(A44:C63,F49,C44:C63)</f>
+        <v>1030</v>
+      </c>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+      <c r="J49" t="s">
+        <v>90</v>
+      </c>
+      <c r="K49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50">
+        <v>240</v>
+      </c>
+      <c r="E50" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50">
+        <f>SUMIFS(C44:C63,B44:B63,E50,A44:A63,F50)</f>
+        <v>230</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52">
+        <v>200</v>
+      </c>
+      <c r="G52">
+        <f>SUMIFS(C44:C63,B44:B63,A44:A63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54">
+        <v>240</v>
+      </c>
+      <c r="F54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54">
+        <f ca="1">SUMIF(A44:C63,F54,C44:C63)</f>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55">
+        <v>340</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56">
+        <v>200</v>
+      </c>
+      <c r="E56" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56">
+        <f>SUMIFS(C44:C63,A44:A63,F56,B44:B63,E56)</f>
+        <v>200</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57">
+        <v>230</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58">
+        <v>240</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59">
+        <v>340</v>
+      </c>
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" t="s">
+        <v>89</v>
+      </c>
+      <c r="G59">
+        <f>SUMIFS(C44:C63,B44:B63,E59,A44:A63,F59)</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71">
+        <f>MAX(C44:C63)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72">
+        <f>MIN(C44:C63)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F49:F50 F54 F56 F59">
+      <formula1>$J$47:$J$50</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E50 E56 E59">
+      <formula1>$K$47:$K$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>532</v>
+      </c>
+      <c r="C1">
+        <f>MAX(A1:A20)</f>
+        <v>4386</v>
+      </c>
+      <c r="D1">
+        <f>MIN(A1:A20)</f>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1316</v>
+      </c>
+      <c r="C2">
+        <f>LARGE(A1:A20,2)</f>
+        <v>4263</v>
+      </c>
+      <c r="D2">
+        <f>SMALL(A1:A20,2)</f>
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1992</v>
+      </c>
+      <c r="D6" s="8">
+        <v>532</v>
+      </c>
+      <c r="E6" s="8">
+        <f ca="1">RAND()</f>
+        <v>0.61912127424677377</v>
+      </c>
+      <c r="F6" s="8">
+        <f ca="1">ROUND(E6,2)</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2164</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1316</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E25" ca="1" si="0">RAND()</f>
+        <v>0.42030237850948904</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F25" ca="1" si="1">ROUND(E7,2)</f>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2276</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1387</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43084445973599039</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2587</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1637</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2316081816790003E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2693</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1647</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68684629545001052</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2859</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1992</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96701529602478498</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3109</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2164</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46634614359249194</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3163</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2276</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.36974672580353951</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3216</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2587</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52709183722839204</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3305</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2693</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75398114841008423</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3519</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2859</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83422388797562153</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3679</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3109</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90424338176313013</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3957</v>
+      </c>
+      <c r="D18" s="8">
+        <v>3163</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4352450417435425E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4263</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3216</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52722550749018127</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4386</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3305</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1181724737015355</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="8">
+        <v>3519</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77158369860154719</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="8">
+        <v>3679</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19590907231659416</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="8">
+        <v>3957</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7500758745437941</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="8">
+        <v>4263</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37940195820258293</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="8">
+        <v>4386</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92676952797841983</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A20">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/firstClassNew.xlsx
+++ b/firstClassNew.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7095" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7095" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,11 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
     <sheet name="MathFunction" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -352,6 +353,87 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Emp code</t>
+  </si>
+  <si>
+    <t>Emp name</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>Bharat</t>
+  </si>
+  <si>
+    <t>Sat yam</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Kirti</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Basic Salary</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>If</t>
+  </si>
+  <si>
+    <t>student Name</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
   </si>
 </sst>
 </file>
@@ -359,9 +441,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,16 +466,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -401,11 +497,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,7 +529,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +803,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -2020,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:D74"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2809,6 +2928,21 @@
       <c r="C72">
         <f>MIN(C44:C63)</f>
         <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74">
+        <f>POWER(2,2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <f>POWER(2,3)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2828,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,11 +3022,11 @@
       </c>
       <c r="E6" s="8">
         <f ca="1">RAND()</f>
-        <v>0.61912127424677377</v>
+        <v>0.25451784884913875</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">ROUND(E6,2)</f>
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2904,11 +3038,11 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" ref="E7:E25" ca="1" si="0">RAND()</f>
-        <v>0.42030237850948904</v>
+        <v>0.11760840396719663</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:F25" ca="1" si="1">ROUND(E7,2)</f>
-        <v>0.42</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,11 +3054,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43084445973599039</v>
+        <v>0.77418562396478152</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,11 +3070,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2316081816790003E-3</v>
+        <v>0.85764104235970429</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2952,11 +3086,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68684629545001052</v>
+        <v>0.71426059409902964</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,11 +3102,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96701529602478498</v>
+        <v>0.60061343937510925</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2984,11 +3118,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46634614359249194</v>
+        <v>0.29498722605334671</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,11 +3134,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36974672580353951</v>
+        <v>0.25455687739882826</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,11 +3150,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52709183722839204</v>
+        <v>0.11653234846547122</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3032,11 +3166,11 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75398114841008423</v>
+        <v>0.80237892083317564</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3048,11 +3182,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83422388797562153</v>
+        <v>0.41493962142757668</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.83</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,11 +3198,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90424338176313013</v>
+        <v>5.4021280958472584E-2</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,11 +3214,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4352450417435425E-2</v>
+        <v>0.81675800166690693</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.06</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3096,11 +3230,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52722550749018127</v>
+        <v>0.55070652425438282</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,11 +3246,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1181724737015355</v>
+        <v>9.4331624842694861E-2</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3125,11 +3259,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77158369860154719</v>
+        <v>0.71684184428216147</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,11 +3272,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19590907231659416</v>
+        <v>0.52377562687520585</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3151,11 +3285,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7500758745437941</v>
+        <v>0.38502599583186503</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,11 +3298,11 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37940195820258293</v>
+        <v>0.5937793641162783</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,11 +3311,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92676952797841983</v>
+        <v>0.79295328771311502</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -3190,4 +3324,670 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="9">
+        <f>C2*40%</f>
+        <v>20000</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2*10%</f>
+        <v>5000</v>
+      </c>
+      <c r="F2" s="9">
+        <f>C2*5%</f>
+        <v>2500</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(C2:F2)</f>
+        <v>77500</v>
+      </c>
+      <c r="H2" s="9">
+        <f>G2*10%</f>
+        <v>7750</v>
+      </c>
+      <c r="I2" s="9">
+        <f>G2*10%</f>
+        <v>7750</v>
+      </c>
+      <c r="J2" s="9">
+        <f>G2-SUM(H2,I2)</f>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="9">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D9" si="0">C3*40%</f>
+        <v>24000</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E9" si="1">C3*10%</f>
+        <v>6000</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F9" si="2">C3*5%</f>
+        <v>3000</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G9" si="3">SUM(C3:F3)</f>
+        <v>93000</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H9" si="4">G3*10%</f>
+        <v>9300</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I9" si="5">G3*10%</f>
+        <v>9300</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J9" si="6">G3-SUM(H3,I3)</f>
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="9">
+        <v>70000</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="3"/>
+        <v>108500</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="4"/>
+        <v>10850</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="5"/>
+        <v>10850</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="6"/>
+        <v>86800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="9">
+        <v>80000</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="3"/>
+        <v>124000</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="4"/>
+        <v>12400</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="5"/>
+        <v>12400</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="6"/>
+        <v>99200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="9">
+        <v>90000</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="3"/>
+        <v>139500</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="4"/>
+        <v>13950</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="5"/>
+        <v>13950</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="6"/>
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="3"/>
+        <v>46500</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="4"/>
+        <v>4650</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="5"/>
+        <v>4650</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="6"/>
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="3"/>
+        <v>62000</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="5"/>
+        <v>6200</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="6"/>
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="3"/>
+        <v>31000</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="4"/>
+        <v>3100</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="5"/>
+        <v>3100</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="6"/>
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(A11&gt;B11,"GT","LT")</f>
+        <v>LT</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>70000</v>
+      </c>
+      <c r="B13">
+        <f>IF(A13&gt;50000,A13*20%,A13*40%)</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>COUNTIF(C2:C9,"&gt;50000")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>SUMIF(C2:C9,"&lt;50000",C2:C9)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>67</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF(B19:D19,"&lt;40")</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(E19=0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(E19=0,"Pass",IF(E19&gt;1,"Fail","com"))</f>
+        <v>com</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>89</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E21" si="7">COUNTIF(B20:D20,"&lt;40")</f>
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ref="F20:F21" si="8">IF(E20=0,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G21" si="9">IF(E20=0,"Pass",IF(E20&gt;1,"Fail","com"))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="8"/>
+        <v>Fail</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="9"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="12">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="12">
+        <f>IF(C26&gt;10000,C26*15%, C26*10%)</f>
+        <v>500</v>
+      </c>
+      <c r="E26" s="12" t="b">
+        <f>IF(C26&gt;10000,D26C26*8%)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>IF(C26&gt;=5000, IF(C26&lt;=10000,C26*10%, IF(C26&lt;=15000,C26*15%, "NA")),"NA")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="12">
+        <v>60000</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" ref="D27:D33" si="10">IF(C27&gt;10000,C27*15%, C27*10%)</f>
+        <v>9000</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" ref="E27:E33" si="11">IF(C27&gt;10000,C27*8%,C27*5%)</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="10"/>
+        <v>2250</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="11"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>6</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="12">
+        <v>30000</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="10"/>
+        <v>4500</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="11"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>7</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="12">
+        <v>40000</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="10"/>
+        <v>6000</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="11"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="12">
+        <v>7000</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="10"/>
+        <v>700</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/firstClassNew.xlsx
+++ b/firstClassNew.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7095" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7095" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
-    <sheet name="MathFunction" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet6" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="MathFunction" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="and or not function " sheetId="10" r:id="rId10"/>
+    <sheet name="string function" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="160">
   <si>
     <t>Name</t>
   </si>
@@ -434,6 +436,87 @@
   </si>
   <si>
     <t>s3</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value </t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>bharat kumar</t>
+  </si>
+  <si>
+    <t>Capital</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    bharat    kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove extra white space </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     bharat     kumar</t>
+  </si>
+  <si>
+    <t>b   harat  kumar</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>repet</t>
+  </si>
+  <si>
+    <t>CONCATENATE</t>
+  </si>
+  <si>
+    <t>Find</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t>kumar mohan</t>
+  </si>
+  <si>
+    <t>ramcharanmohan singh</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>mohan</t>
+  </si>
+  <si>
+    <t>ramcharanmohan</t>
+  </si>
+  <si>
+    <t>singh</t>
   </si>
 </sst>
 </file>
@@ -1240,6 +1323,313 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>80</v>
+      </c>
+      <c r="C1">
+        <v>40</v>
+      </c>
+      <c r="E1" t="str">
+        <f>IF(A1&gt;B1,IF(A1&gt;C1,"A is GT"),IF(B1&gt;C1,"B is GT","C is GT"))</f>
+        <v>B is GT</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="b">
+        <f>AND(A1&gt;B1,A1&gt;C1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f>IF(AND(A1&gt;B1,A1&gt;C1)=TRUE,"a is gt",IF(B1&gt;C1,"Bis gt","c is GT"))</f>
+        <v>Bis gt</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" t="b">
+        <f>OR(A1&gt;B1,B1&gt;C1)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="b">
+        <f>NOT(A1&gt;B1)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="str">
+        <f>PROPER(B2)</f>
+        <v>Bharat</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="str">
+        <f>PROPER(B3)</f>
+        <v>Bharat Kumar</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="str">
+        <f>UPPER(B2)</f>
+        <v>BHARAT</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="str">
+        <f>LOWER(C5)</f>
+        <v>bharat</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7">
+        <f>LEN(B7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>TRIM(B7)</f>
+        <v>bharat kumar</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9">
+        <f>LEN(TRIM(B7))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f>TRIM(B9)</f>
+        <v>bharat kumar</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="str">
+        <f>TRIM(B12)</f>
+        <v>b harat kumar</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="str">
+        <f>LEFT(C10,3)</f>
+        <v>bha</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" t="str">
+        <f>RIGHT(C10,3)</f>
+        <v>mar</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="str">
+        <f>REPT(C10,3)</f>
+        <v>bharat kumarbharat kumarbharat kumar</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE("Mr"," ",C10)</f>
+        <v>Mr bharat kumar</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <f>FIND("t",C16,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="str">
+        <f>REPLACE(C10,1,1,"B")</f>
+        <v>Bharat kumar</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>REPLACE(C10,2,1,"t")</f>
+        <v>btarat kumar</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f>REPLACE(C10,FIND("h",C10,1),1,"t")</f>
+        <v>btarat kumar</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
@@ -2072,6 +2462,684 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="9">
+        <v>50000</v>
+      </c>
+      <c r="D2" s="9">
+        <f>C2*40%</f>
+        <v>20000</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2*10%</f>
+        <v>5000</v>
+      </c>
+      <c r="F2" s="9">
+        <f>C2*5%</f>
+        <v>2500</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(C2:F2)</f>
+        <v>77500</v>
+      </c>
+      <c r="H2" s="9">
+        <f>G2*10%</f>
+        <v>7750</v>
+      </c>
+      <c r="I2" s="9">
+        <f>G2*10%</f>
+        <v>7750</v>
+      </c>
+      <c r="J2" s="9">
+        <f>G2-SUM(H2,I2)</f>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="9">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D9" si="0">C3*40%</f>
+        <v>24000</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E9" si="1">C3*10%</f>
+        <v>6000</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F9" si="2">C3*5%</f>
+        <v>3000</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G9" si="3">SUM(C3:F3)</f>
+        <v>93000</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3:H9" si="4">G3*10%</f>
+        <v>9300</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I9" si="5">G3*10%</f>
+        <v>9300</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J9" si="6">G3-SUM(H3,I3)</f>
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="9">
+        <v>70000</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="3"/>
+        <v>108500</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" si="4"/>
+        <v>10850</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="5"/>
+        <v>10850</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="6"/>
+        <v>86800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="9">
+        <v>80000</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>32000</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="3"/>
+        <v>124000</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="4"/>
+        <v>12400</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="5"/>
+        <v>12400</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="6"/>
+        <v>99200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="9">
+        <v>90000</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="3"/>
+        <v>139500</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="4"/>
+        <v>13950</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="5"/>
+        <v>13950</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="6"/>
+        <v>111600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="9">
+        <v>30000</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="3"/>
+        <v>46500</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="4"/>
+        <v>4650</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="5"/>
+        <v>4650</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="6"/>
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="9">
+        <v>40000</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="3"/>
+        <v>62000</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="5"/>
+        <v>6200</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="6"/>
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="3"/>
+        <v>31000</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="4"/>
+        <v>3100</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="5"/>
+        <v>3100</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="6"/>
+        <v>24800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="D11" t="str">
+        <f>IF(A11&gt;B11,"GT","LT")</f>
+        <v>LT</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>70000</v>
+      </c>
+      <c r="B13">
+        <f>IF(A13&gt;50000,A13*20%,A13*40%)</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>COUNTIF(C2:C9,"&gt;50000")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>SUMIF(C2:C9,"&lt;50000",C2:C9)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>67</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF(B19:D19,"&lt;40")</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(E19=0,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(E19=0,"Pass",IF(E19&gt;1,"Fail","com"))</f>
+        <v>com</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(COUNTIF(B19:D19,"&lt;40")=0,"Pass","fail")</f>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>89</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E21" si="7">COUNTIF(B20:D20,"&lt;40")</f>
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" ref="F20:F21" si="8">IF(E20=0,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G21" si="9">IF(E20=0,"Pass",IF(E20&gt;1,"Fail","com"))</f>
+        <v>Pass</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ref="H20:H21" si="10">IF(COUNTIF(B20:D20,"&lt;40")=0,"Pass","fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>67</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="8"/>
+        <v>Fail</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="9"/>
+        <v>Fail</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="10"/>
+        <v>fail</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>1</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="12">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="12">
+        <f>IF(C26&gt;10000,C26*15%, C26*10%)</f>
+        <v>500</v>
+      </c>
+      <c r="E26" s="12" t="b">
+        <f>IF(C26&gt;10000,D26C26*8%)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>IF(C26&gt;=5000, IF(C26&lt;=10000,C26*10%, IF(C26&lt;=15000,C26*15%, "NA")),"NA")</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>2</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="12">
+        <v>60000</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" ref="D27:D33" si="11">IF(C27&gt;10000,C27*15%, C27*10%)</f>
+        <v>9000</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" ref="E27:E33" si="12">IF(C27&gt;10000,C27*8%,C27*5%)</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="11"/>
+        <v>2250</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="12"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>4</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8000</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="11"/>
+        <v>800</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20000</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="12"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>6</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="12">
+        <v>30000</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="11"/>
+        <v>4500</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="12"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>7</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="12">
+        <v>40000</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="11"/>
+        <v>6000</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="12"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>8</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="12">
+        <v>7000</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2137,7 +3205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
@@ -2958,12 +4026,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,11 +4090,11 @@
       </c>
       <c r="E6" s="8">
         <f ca="1">RAND()</f>
-        <v>0.25451784884913875</v>
+        <v>9.1512934985840122E-3</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">ROUND(E6,2)</f>
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,11 +4106,11 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" ref="E7:E25" ca="1" si="0">RAND()</f>
-        <v>0.11760840396719663</v>
+        <v>0.48990974781853558</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" ref="F7:F25" ca="1" si="1">ROUND(E7,2)</f>
-        <v>0.12</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,11 +4122,11 @@
       </c>
       <c r="E8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77418562396478152</v>
+        <v>0.15876113296085981</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3070,11 +4138,11 @@
       </c>
       <c r="E9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85764104235970429</v>
+        <v>0.74228878898124606</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3086,11 +4154,11 @@
       </c>
       <c r="E10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71426059409902964</v>
+        <v>0.47121908033842885</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,11 +4170,11 @@
       </c>
       <c r="E11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60061343937510925</v>
+        <v>5.766469852571765E-2</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,11 +4186,11 @@
       </c>
       <c r="E12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29498722605334671</v>
+        <v>0.9809222406865783</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28999999999999998</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,11 +4202,11 @@
       </c>
       <c r="E13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25455687739882826</v>
+        <v>0.21872436481087487</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3150,11 +4218,11 @@
       </c>
       <c r="E14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11653234846547122</v>
+        <v>0.89797563957972715</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3166,11 +4234,11 @@
       </c>
       <c r="E15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80237892083317564</v>
+        <v>0.37051366124688279</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,11 +4250,11 @@
       </c>
       <c r="E16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41493962142757668</v>
+        <v>0.18330087874558809</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,11 +4266,11 @@
       </c>
       <c r="E17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4021280958472584E-2</v>
+        <v>0.4382514543353907</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.05</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3214,11 +4282,11 @@
       </c>
       <c r="E18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81675800166690693</v>
+        <v>0.11660422388358116</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3230,11 +4298,11 @@
       </c>
       <c r="E19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55070652425438282</v>
+        <v>0.71921249791035469</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3246,11 +4314,11 @@
       </c>
       <c r="E20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4331624842694861E-2</v>
+        <v>0.39816946917293405</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.09</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,11 +4327,11 @@
       </c>
       <c r="E21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71684184428216147</v>
+        <v>0.11911460094985149</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3272,11 +4340,11 @@
       </c>
       <c r="E22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52377562687520585</v>
+        <v>0.38390242898980176</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,11 +4353,11 @@
       </c>
       <c r="E23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38502599583186503</v>
+        <v>7.8850435549149611E-2</v>
       </c>
       <c r="F23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,11 +4366,11 @@
       </c>
       <c r="E24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5937793641162783</v>
+        <v>0.71560431721655238</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3311,11 +4379,11 @@
       </c>
       <c r="E25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79295328771311502</v>
+        <v>0.94567881174043811</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -3324,670 +4392,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="9">
-        <v>50000</v>
-      </c>
-      <c r="D2" s="9">
-        <f>C2*40%</f>
-        <v>20000</v>
-      </c>
-      <c r="E2" s="9">
-        <f>C2*10%</f>
-        <v>5000</v>
-      </c>
-      <c r="F2" s="9">
-        <f>C2*5%</f>
-        <v>2500</v>
-      </c>
-      <c r="G2" s="9">
-        <f>SUM(C2:F2)</f>
-        <v>77500</v>
-      </c>
-      <c r="H2" s="9">
-        <f>G2*10%</f>
-        <v>7750</v>
-      </c>
-      <c r="I2" s="9">
-        <f>G2*10%</f>
-        <v>7750</v>
-      </c>
-      <c r="J2" s="9">
-        <f>G2-SUM(H2,I2)</f>
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="9">
-        <v>60000</v>
-      </c>
-      <c r="D3" s="9">
-        <f t="shared" ref="D3:D9" si="0">C3*40%</f>
-        <v>24000</v>
-      </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E9" si="1">C3*10%</f>
-        <v>6000</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" ref="F3:F9" si="2">C3*5%</f>
-        <v>3000</v>
-      </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G9" si="3">SUM(C3:F3)</f>
-        <v>93000</v>
-      </c>
-      <c r="H3" s="9">
-        <f t="shared" ref="H3:H9" si="4">G3*10%</f>
-        <v>9300</v>
-      </c>
-      <c r="I3" s="9">
-        <f t="shared" ref="I3:I9" si="5">G3*10%</f>
-        <v>9300</v>
-      </c>
-      <c r="J3" s="9">
-        <f t="shared" ref="J3:J9" si="6">G3-SUM(H3,I3)</f>
-        <v>74400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="9">
-        <v>70000</v>
-      </c>
-      <c r="D4" s="9">
-        <f t="shared" si="0"/>
-        <v>28000</v>
-      </c>
-      <c r="E4" s="9">
-        <f t="shared" si="1"/>
-        <v>7000</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="G4" s="9">
-        <f t="shared" si="3"/>
-        <v>108500</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="4"/>
-        <v>10850</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="5"/>
-        <v>10850</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" si="6"/>
-        <v>86800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="9">
-        <v>80000</v>
-      </c>
-      <c r="D5" s="9">
-        <f t="shared" si="0"/>
-        <v>32000</v>
-      </c>
-      <c r="E5" s="9">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-      <c r="G5" s="9">
-        <f t="shared" si="3"/>
-        <v>124000</v>
-      </c>
-      <c r="H5" s="9">
-        <f t="shared" si="4"/>
-        <v>12400</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="5"/>
-        <v>12400</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="6"/>
-        <v>99200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="9">
-        <v>90000</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>36000</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="2"/>
-        <v>4500</v>
-      </c>
-      <c r="G6" s="9">
-        <f t="shared" si="3"/>
-        <v>139500</v>
-      </c>
-      <c r="H6" s="9">
-        <f t="shared" si="4"/>
-        <v>13950</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="5"/>
-        <v>13950</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="6"/>
-        <v>111600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="9">
-        <v>30000</v>
-      </c>
-      <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>12000</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="G7" s="9">
-        <f t="shared" si="3"/>
-        <v>46500</v>
-      </c>
-      <c r="H7" s="9">
-        <f t="shared" si="4"/>
-        <v>4650</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="5"/>
-        <v>4650</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" si="6"/>
-        <v>37200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="9">
-        <v>40000</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>16000</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="3"/>
-        <v>62000</v>
-      </c>
-      <c r="H8" s="9">
-        <f t="shared" si="4"/>
-        <v>6200</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="5"/>
-        <v>6200</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="6"/>
-        <v>49600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="9">
-        <v>20000</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="3"/>
-        <v>31000</v>
-      </c>
-      <c r="H9" s="9">
-        <f t="shared" si="4"/>
-        <v>3100</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" si="5"/>
-        <v>3100</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="6"/>
-        <v>24800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="D11" t="str">
-        <f>IF(A11&gt;B11,"GT","LT")</f>
-        <v>LT</v>
-      </c>
-      <c r="F11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>70000</v>
-      </c>
-      <c r="B13">
-        <f>IF(A13&gt;50000,A13*20%,A13*40%)</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f>COUNTIF(C2:C9,"&gt;50000")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>SUMIF(C2:C9,"&lt;50000",C2:C9)</f>
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>56</v>
-      </c>
-      <c r="D19">
-        <v>67</v>
-      </c>
-      <c r="E19">
-        <f>COUNTIF(B19:D19,"&lt;40")</f>
-        <v>1</v>
-      </c>
-      <c r="F19" t="str">
-        <f>IF(E19=0,"Pass","Fail")</f>
-        <v>Fail</v>
-      </c>
-      <c r="G19" t="str">
-        <f>IF(E19=0,"Pass",IF(E19&gt;1,"Fail","com"))</f>
-        <v>com</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20">
-        <v>67</v>
-      </c>
-      <c r="C20">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <v>89</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E21" si="7">COUNTIF(B20:D20,"&lt;40")</f>
-        <v>0</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" ref="F20:F21" si="8">IF(E20=0,"Pass","Fail")</f>
-        <v>Pass</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" ref="G20:G21" si="9">IF(E20=0,"Pass",IF(E20&gt;1,"Fail","com"))</f>
-        <v>Pass</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>67</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="8"/>
-        <v>Fail</v>
-      </c>
-      <c r="G21" t="str">
-        <f t="shared" si="9"/>
-        <v>Fail</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>1</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="12">
-        <v>5000</v>
-      </c>
-      <c r="D26" s="12">
-        <f>IF(C26&gt;10000,C26*15%, C26*10%)</f>
-        <v>500</v>
-      </c>
-      <c r="E26" s="12" t="b">
-        <f>IF(C26&gt;10000,D26C26*8%)</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>IF(C26&gt;=5000, IF(C26&lt;=10000,C26*10%, IF(C26&lt;=15000,C26*15%, "NA")),"NA")</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>2</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="12">
-        <v>60000</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" ref="D27:D33" si="10">IF(C27&gt;10000,C27*15%, C27*10%)</f>
-        <v>9000</v>
-      </c>
-      <c r="E27" s="12">
-        <f t="shared" ref="E27:E33" si="11">IF(C27&gt;10000,C27*8%,C27*5%)</f>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>3</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="12">
-        <v>15000</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="10"/>
-        <v>2250</v>
-      </c>
-      <c r="E28" s="12">
-        <f t="shared" si="11"/>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>4</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="12">
-        <v>8000</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-      <c r="E29" s="12">
-        <f t="shared" si="11"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>5</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="12">
-        <v>20000</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="E30" s="12">
-        <f t="shared" si="11"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>6</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="12">
-        <v>30000</v>
-      </c>
-      <c r="D31" s="12">
-        <f t="shared" si="10"/>
-        <v>4500</v>
-      </c>
-      <c r="E31" s="12">
-        <f t="shared" si="11"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>7</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="12">
-        <v>40000</v>
-      </c>
-      <c r="D32" s="12">
-        <f t="shared" si="10"/>
-        <v>6000</v>
-      </c>
-      <c r="E32" s="12">
-        <f t="shared" si="11"/>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>8</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33" s="12">
-        <v>7000</v>
-      </c>
-      <c r="D33" s="12">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="E33" s="12">
-        <f t="shared" si="11"/>
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>